--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1362620.498143437</v>
+        <v>1358158.142894821</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7197684.80700165</v>
+        <v>7197684.807001648</v>
       </c>
     </row>
     <row r="9">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>111.6058030346537</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>274.2645523750966</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.43123191120419</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>152.9223073520125</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007743</v>
       </c>
       <c r="T12" t="n">
         <v>136.1178674008418</v>
@@ -1539,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>158.6179177461478</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>58.93689108176552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.949028315574161</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T13" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1618,13 +1618,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.2645523750966</v>
+        <v>26.20680748893998</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.43123191120419</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>96.05091133983423</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007743</v>
       </c>
       <c r="T15" t="n">
         <v>136.1178674008418</v>
@@ -1770,10 +1770,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1782,10 +1782,10 @@
         <v>163.6910211419383</v>
       </c>
       <c r="H16" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.949028315574154</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>140.0233419077841</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>108.9379582077126</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>209.9003444702288</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>199.1838761828604</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>218.6905816170324</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007743</v>
       </c>
       <c r="T18" t="n">
         <v>136.1178674008418</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.1352539951569</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>105.4382695519835</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2013,13 +2013,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I19" t="n">
         <v>71.60381629275079</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.949028315574161</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.045645824438125</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>20.98812724333113</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007743</v>
       </c>
       <c r="T21" t="n">
         <v>136.1178674008418</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>48.44625539798561</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.3264464278099</v>
+        <v>74.57176043228867</v>
       </c>
       <c r="I22" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>190.3848602880323</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>42.2238220567926</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>58.21009284813614</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>144.2696854995141</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2493,7 +2493,7 @@
         <v>163.6910211419383</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>152.6902671187685</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>28.63468847227337</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.4312319112042</v>
+        <v>20.14389678220364</v>
       </c>
       <c r="T26" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>60.0534997713391</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>152.6902671187685</v>
+        <v>39.34323636556837</v>
       </c>
       <c r="T28" t="n">
         <v>237.0460627746974</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>88.69561417435465</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.9003444702288</v>
@@ -2851,16 +2851,16 @@
         <v>255.6102460520883</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>152.4457475848306</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>71.60381629275079</v>
+        <v>48.54963872249677</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.0460627746974</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>192.8860439077796</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3034,13 +3034,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T32" t="n">
-        <v>30.09620007959933</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>169.8178309806825</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>60.0534997713391</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>121.4472729440604</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>389.4423834897332</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>76.60747038981948</v>
       </c>
       <c r="G35" t="n">
         <v>398.2817435681513</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>57.4312319112042</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>60.0534997713391</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.6902671187685</v>
+        <v>48.54963872249682</v>
       </c>
       <c r="T37" t="n">
         <v>237.0460627746974</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H38" t="n">
         <v>274.2645523750966</v>
@@ -3556,22 +3556,22 @@
         <v>57.4312319112042</v>
       </c>
       <c r="T38" t="n">
-        <v>110.4168946437905</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>194.4373766061642</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>55.11145507043155</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>6.570836020348076</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.0460627746974</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>155.6540334418353</v>
       </c>
       <c r="G41" t="n">
-        <v>67.20942829536033</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3808,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>128.3982635695718</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S43" t="n">
-        <v>152.6902671187685</v>
+        <v>42.60061040692253</v>
       </c>
       <c r="T43" t="n">
         <v>237.0460627746974</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.2817435681513</v>
@@ -4030,19 +4030,19 @@
         <v>57.4312319112042</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>12.98253592577251</v>
       </c>
       <c r="V44" t="n">
-        <v>111.6058030346537</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>21.3317648304973</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.0460627746974</v>
@@ -4194,7 +4194,7 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V46" t="n">
-        <v>183.2132756604678</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2113.505005925658</v>
+        <v>745.5894102253965</v>
       </c>
       <c r="C11" t="n">
-        <v>1686.604275938958</v>
+        <v>745.5894102253965</v>
       </c>
       <c r="D11" t="n">
-        <v>1573.87114156052</v>
+        <v>745.5894102253965</v>
       </c>
       <c r="E11" t="n">
-        <v>1147.894201708378</v>
+        <v>745.5894102253965</v>
       </c>
       <c r="F11" t="n">
-        <v>722.7700198977777</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="G11" t="n">
         <v>320.4652284147967</v>
       </c>
       <c r="H11" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I11" t="n">
-        <v>86.09345146672831</v>
+        <v>86.09345146672877</v>
       </c>
       <c r="J11" t="n">
-        <v>226.1880352922988</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K11" t="n">
-        <v>444.3985098873425</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L11" t="n">
-        <v>721.104435414476</v>
+        <v>721.1044354144765</v>
       </c>
       <c r="M11" t="n">
         <v>1034.139376672044</v>
@@ -5062,31 +5062,31 @@
         <v>1901.41298331237</v>
       </c>
       <c r="Q11" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R11" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S11" t="n">
-        <v>2113.505005925658</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T11" t="n">
-        <v>2113.505005925658</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="U11" t="n">
-        <v>2113.505005925658</v>
+        <v>1959.038028802412</v>
       </c>
       <c r="V11" t="n">
-        <v>2113.505005925658</v>
+        <v>1959.038028802412</v>
       </c>
       <c r="W11" t="n">
-        <v>2113.505005925658</v>
+        <v>1562.646679102759</v>
       </c>
       <c r="X11" t="n">
-        <v>2113.505005925658</v>
+        <v>1150.926680270506</v>
       </c>
       <c r="Y11" t="n">
-        <v>2113.505005925658</v>
+        <v>745.5894102253965</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G12" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H12" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I12" t="n">
-        <v>64.14840690919141</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J12" t="n">
-        <v>383.1970525392663</v>
+        <v>277.7415522543613</v>
       </c>
       <c r="K12" t="n">
-        <v>533.2819540266164</v>
+        <v>427.8264537417112</v>
       </c>
       <c r="L12" t="n">
-        <v>742.6170386413061</v>
+        <v>637.1615383564008</v>
       </c>
       <c r="M12" t="n">
-        <v>990.0466997665799</v>
+        <v>884.5911994816745</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.366492570713</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O12" t="n">
-        <v>1477.238310130523</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P12" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q12" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R12" t="n">
         <v>1815.841701345204</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.1479878027728</v>
+        <v>1077.349601326562</v>
       </c>
       <c r="C13" t="n">
-        <v>533.1754246816888</v>
+        <v>905.3770382054779</v>
       </c>
       <c r="D13" t="n">
-        <v>369.8586518084595</v>
+        <v>742.0602653322486</v>
       </c>
       <c r="E13" t="n">
-        <v>203.6504459613131</v>
+        <v>575.8520594851021</v>
       </c>
       <c r="F13" t="n">
-        <v>43.43032702581021</v>
+        <v>403.9902852596625</v>
       </c>
       <c r="G13" t="n">
-        <v>43.43032702581021</v>
+        <v>238.6458194597248</v>
       </c>
       <c r="H13" t="n">
-        <v>43.43032702581021</v>
+        <v>102.9625402397148</v>
       </c>
       <c r="I13" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J13" t="n">
-        <v>164.151852271932</v>
+        <v>164.1518522719319</v>
       </c>
       <c r="K13" t="n">
-        <v>367.2063020968881</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L13" t="n">
-        <v>854.8603452759938</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M13" t="n">
-        <v>972.7033159811497</v>
+        <v>1100.083104618132</v>
       </c>
       <c r="N13" t="n">
-        <v>1089.021092194644</v>
+        <v>1216.400880831626</v>
       </c>
       <c r="O13" t="n">
-        <v>1570.860832459529</v>
+        <v>1570.860832459528</v>
       </c>
       <c r="P13" t="n">
-        <v>1969.627016373227</v>
+        <v>1969.627016373226</v>
       </c>
       <c r="Q13" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R13" t="n">
         <v>2165.507231779829</v>
       </c>
       <c r="S13" t="n">
-        <v>2165.507231779829</v>
+        <v>2011.274638730567</v>
       </c>
       <c r="T13" t="n">
-        <v>1926.06676433064</v>
+        <v>2011.274638730567</v>
       </c>
       <c r="U13" t="n">
-        <v>1645.932088771262</v>
+        <v>2011.274638730567</v>
       </c>
       <c r="V13" t="n">
-        <v>1364.220621379291</v>
+        <v>2011.274638730567</v>
       </c>
       <c r="W13" t="n">
-        <v>1364.220621379291</v>
+        <v>1736.42223490308</v>
       </c>
       <c r="X13" t="n">
-        <v>1121.656724825096</v>
+        <v>1493.858338348886</v>
       </c>
       <c r="Y13" t="n">
-        <v>895.3139565148385</v>
+        <v>1267.515570038628</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1596.635519068639</v>
+        <v>1344.295592219653</v>
       </c>
       <c r="C14" t="n">
-        <v>1169.734789081939</v>
+        <v>1344.295592219653</v>
       </c>
       <c r="D14" t="n">
-        <v>746.4421682669391</v>
+        <v>921.0029714046534</v>
       </c>
       <c r="E14" t="n">
-        <v>320.4652284147967</v>
+        <v>495.026031552511</v>
       </c>
       <c r="F14" t="n">
-        <v>320.4652284147967</v>
+        <v>69.90184974191118</v>
       </c>
       <c r="G14" t="n">
-        <v>320.4652284147967</v>
+        <v>69.90184974191118</v>
       </c>
       <c r="H14" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I14" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J14" t="n">
-        <v>226.1880352922993</v>
+        <v>226.1880352922981</v>
       </c>
       <c r="K14" t="n">
-        <v>444.3985098873431</v>
+        <v>444.3985098873419</v>
       </c>
       <c r="L14" t="n">
-        <v>721.1044354144766</v>
+        <v>721.1044354144753</v>
       </c>
       <c r="M14" t="n">
-        <v>1034.139376672044</v>
+        <v>1034.139376672043</v>
       </c>
       <c r="N14" t="n">
-        <v>1352.989294408674</v>
+        <v>1352.989294408673</v>
       </c>
       <c r="O14" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255481</v>
       </c>
       <c r="P14" t="n">
-        <v>1901.412983312371</v>
+        <v>1901.412983312369</v>
       </c>
       <c r="Q14" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R14" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.516351290509</v>
       </c>
       <c r="S14" t="n">
-        <v>2113.505005925658</v>
+        <v>2113.505005925656</v>
       </c>
       <c r="T14" t="n">
-        <v>2113.505005925658</v>
+        <v>2113.505005925656</v>
       </c>
       <c r="U14" t="n">
-        <v>2113.505005925658</v>
+        <v>2113.505005925656</v>
       </c>
       <c r="V14" t="n">
-        <v>2016.483883360169</v>
+        <v>1756.015591051906</v>
       </c>
       <c r="W14" t="n">
-        <v>2016.483883360169</v>
+        <v>1756.015591051906</v>
       </c>
       <c r="X14" t="n">
-        <v>2016.483883360169</v>
+        <v>1344.295592219653</v>
       </c>
       <c r="Y14" t="n">
-        <v>2016.483883360169</v>
+        <v>1344.295592219653</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>598.9534360708841</v>
+        <v>598.953436070884</v>
       </c>
       <c r="C15" t="n">
-        <v>481.4475325883889</v>
+        <v>481.4475325883888</v>
       </c>
       <c r="D15" t="n">
-        <v>377.6075741036739</v>
+        <v>377.6075741036738</v>
       </c>
       <c r="E15" t="n">
-        <v>272.9056403766111</v>
+        <v>272.905640376611</v>
       </c>
       <c r="F15" t="n">
         <v>179.2598100595152</v>
       </c>
       <c r="G15" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954512</v>
       </c>
       <c r="H15" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I15" t="n">
-        <v>64.14840690919141</v>
+        <v>87.60571275360321</v>
       </c>
       <c r="J15" t="n">
-        <v>383.1970525392662</v>
+        <v>277.7415522543611</v>
       </c>
       <c r="K15" t="n">
-        <v>533.2819540266163</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L15" t="n">
-        <v>742.617038641306</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M15" t="n">
-        <v>990.0466997665798</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.366492570713</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O15" t="n">
-        <v>1477.238310130523</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P15" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q15" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R15" t="n">
         <v>1815.841701345204</v>
@@ -5396,13 +5396,13 @@
         <v>1227.572057537774</v>
       </c>
       <c r="W15" t="n">
-        <v>1031.050680370992</v>
+        <v>1031.050680370991</v>
       </c>
       <c r="X15" t="n">
-        <v>867.5733341376545</v>
+        <v>867.5733341376543</v>
       </c>
       <c r="Y15" t="n">
-        <v>727.8804454909468</v>
+        <v>727.8804454909467</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1090.144475277052</v>
+        <v>552.6091301722714</v>
       </c>
       <c r="C16" t="n">
-        <v>918.1719121559681</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="D16" t="n">
-        <v>754.8551392827388</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="E16" t="n">
-        <v>588.6469334355924</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="F16" t="n">
-        <v>416.7851592101528</v>
+        <v>208.7747928257479</v>
       </c>
       <c r="G16" t="n">
-        <v>251.440693410215</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H16" t="n">
-        <v>115.757414190205</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I16" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J16" t="n">
-        <v>86.23013562371113</v>
+        <v>164.1518522719319</v>
       </c>
       <c r="K16" t="n">
-        <v>416.6643740856492</v>
+        <v>331.3731459372686</v>
       </c>
       <c r="L16" t="n">
-        <v>904.318417264755</v>
+        <v>819.0271891163744</v>
       </c>
       <c r="M16" t="n">
-        <v>1416.50241939368</v>
+        <v>1350.405640284352</v>
       </c>
       <c r="N16" t="n">
-        <v>1930.853118449054</v>
+        <v>1466.723416497846</v>
       </c>
       <c r="O16" t="n">
-        <v>2034.990534410736</v>
+        <v>1570.860832459528</v>
       </c>
       <c r="P16" t="n">
-        <v>2121.000513751126</v>
+        <v>1969.627016373226</v>
       </c>
       <c r="Q16" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.516351290509</v>
       </c>
       <c r="R16" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290509</v>
       </c>
       <c r="S16" t="n">
-        <v>2024.069512681058</v>
+        <v>2171.516351290509</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.069512681058</v>
+        <v>1932.07588384132</v>
       </c>
       <c r="U16" t="n">
-        <v>2024.069512681058</v>
+        <v>1651.941208281942</v>
       </c>
       <c r="V16" t="n">
-        <v>2024.069512681058</v>
+        <v>1370.229740889971</v>
       </c>
       <c r="W16" t="n">
-        <v>1749.217108853571</v>
+        <v>1095.377337062484</v>
       </c>
       <c r="X16" t="n">
-        <v>1506.653212299376</v>
+        <v>852.8134405082891</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.310443989118</v>
+        <v>742.775098884337</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>722.7700198977777</v>
+        <v>1318.74785963811</v>
       </c>
       <c r="C17" t="n">
-        <v>722.7700198977777</v>
+        <v>891.8471296514097</v>
       </c>
       <c r="D17" t="n">
-        <v>722.7700198977777</v>
+        <v>468.55450883641</v>
       </c>
       <c r="E17" t="n">
-        <v>722.7700198977777</v>
+        <v>468.55450883641</v>
       </c>
       <c r="F17" t="n">
-        <v>722.7700198977777</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G17" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H17" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I17" t="n">
-        <v>86.09345146672831</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J17" t="n">
         <v>226.1880352922992</v>
@@ -5521,13 +5521,13 @@
         <v>444.3985098873429</v>
       </c>
       <c r="L17" t="n">
-        <v>721.1044354144765</v>
+        <v>721.1044354144763</v>
       </c>
       <c r="M17" t="n">
-        <v>1034.139376672044</v>
+        <v>1034.139376672043</v>
       </c>
       <c r="N17" t="n">
-        <v>1352.989294408674</v>
+        <v>1352.989294408673</v>
       </c>
       <c r="O17" t="n">
         <v>1651.903250255482</v>
@@ -5536,31 +5536,31 @@
         <v>1901.41298331237</v>
       </c>
       <c r="Q17" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R17" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S17" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T17" t="n">
-        <v>1959.495801320582</v>
+        <v>1959.495801320581</v>
       </c>
       <c r="U17" t="n">
-        <v>1701.3036335912</v>
+        <v>1959.495801320581</v>
       </c>
       <c r="V17" t="n">
-        <v>1343.81421871745</v>
+        <v>1959.495801320581</v>
       </c>
       <c r="W17" t="n">
-        <v>1142.618384189308</v>
+        <v>1959.495801320581</v>
       </c>
       <c r="X17" t="n">
-        <v>1142.618384189308</v>
+        <v>1959.495801320581</v>
       </c>
       <c r="Y17" t="n">
-        <v>1142.618384189308</v>
+        <v>1738.59622392964</v>
       </c>
     </row>
     <row r="18">
@@ -5585,31 +5585,31 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G18" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H18" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I18" t="n">
-        <v>64.14840690919141</v>
+        <v>64.14840690919138</v>
       </c>
       <c r="J18" t="n">
         <v>144.5298811612101</v>
       </c>
       <c r="K18" t="n">
-        <v>294.6147826485602</v>
+        <v>533.2819540266171</v>
       </c>
       <c r="L18" t="n">
-        <v>503.9498672632498</v>
+        <v>742.6170386413066</v>
       </c>
       <c r="M18" t="n">
-        <v>751.3795283885236</v>
+        <v>990.0466997665803</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.366492570713</v>
+        <v>1246.366492570714</v>
       </c>
       <c r="O18" t="n">
-        <v>1477.238310130523</v>
+        <v>1477.238310130524</v>
       </c>
       <c r="P18" t="n">
         <v>1659.391674476716</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.1167302571043</v>
+        <v>852.8134405082895</v>
       </c>
       <c r="C19" t="n">
-        <v>617.1441671360203</v>
+        <v>746.3101379305284</v>
       </c>
       <c r="D19" t="n">
-        <v>453.827394262791</v>
+        <v>582.9933650572991</v>
       </c>
       <c r="E19" t="n">
-        <v>287.6191884156445</v>
+        <v>416.7851592101527</v>
       </c>
       <c r="F19" t="n">
-        <v>115.757414190205</v>
+        <v>416.7851592101527</v>
       </c>
       <c r="G19" t="n">
-        <v>115.757414190205</v>
+        <v>251.440693410215</v>
       </c>
       <c r="H19" t="n">
-        <v>115.757414190205</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="I19" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J19" t="n">
-        <v>164.151852271932</v>
+        <v>164.1518522719319</v>
       </c>
       <c r="K19" t="n">
-        <v>494.5860907338701</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L19" t="n">
         <v>982.2401339129758</v>
@@ -5685,40 +5685,40 @@
         <v>1100.083104618132</v>
       </c>
       <c r="N19" t="n">
-        <v>1216.400880831626</v>
+        <v>1614.433803673506</v>
       </c>
       <c r="O19" t="n">
-        <v>1698.240621096511</v>
+        <v>1718.571219635188</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.006805010209</v>
+        <v>1969.627016373226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R19" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S19" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T19" t="n">
-        <v>1926.06676433064</v>
+        <v>1932.07588384132</v>
       </c>
       <c r="U19" t="n">
-        <v>1645.932088771262</v>
+        <v>1651.941208281943</v>
       </c>
       <c r="V19" t="n">
-        <v>1364.220621379291</v>
+        <v>1370.229740889971</v>
       </c>
       <c r="W19" t="n">
-        <v>1364.220621379291</v>
+        <v>1095.377337062484</v>
       </c>
       <c r="X19" t="n">
-        <v>1121.656724825096</v>
+        <v>852.8134405082895</v>
       </c>
       <c r="Y19" t="n">
-        <v>895.3139565148385</v>
+        <v>852.8134405082895</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>468.55450883641</v>
+        <v>1339.947988166727</v>
       </c>
       <c r="C20" t="n">
-        <v>468.55450883641</v>
+        <v>913.047258180027</v>
       </c>
       <c r="D20" t="n">
-        <v>468.55450883641</v>
+        <v>489.7546373650273</v>
       </c>
       <c r="E20" t="n">
-        <v>468.55450883641</v>
+        <v>489.7546373650273</v>
       </c>
       <c r="F20" t="n">
-        <v>43.43032702581021</v>
+        <v>64.6304555544275</v>
       </c>
       <c r="G20" t="n">
-        <v>43.43032702581021</v>
+        <v>64.6304555544275</v>
       </c>
       <c r="H20" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I20" t="n">
-        <v>86.09345146672831</v>
+        <v>86.09345146672865</v>
       </c>
       <c r="J20" t="n">
-        <v>226.1880352922992</v>
+        <v>226.1880352922993</v>
       </c>
       <c r="K20" t="n">
-        <v>444.3985098873432</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L20" t="n">
-        <v>721.1044354144766</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M20" t="n">
-        <v>1034.139376672044</v>
+        <v>1034.139376672043</v>
       </c>
       <c r="N20" t="n">
-        <v>1352.989294408674</v>
+        <v>1352.989294408673</v>
       </c>
       <c r="O20" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255481</v>
       </c>
       <c r="P20" t="n">
         <v>1901.41298331237</v>
       </c>
       <c r="Q20" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R20" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S20" t="n">
-        <v>2113.505005925658</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T20" t="n">
-        <v>1901.48445595573</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="U20" t="n">
-        <v>1643.292288226347</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="V20" t="n">
-        <v>1285.802873352597</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="W20" t="n">
-        <v>889.4115236529437</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="X20" t="n">
-        <v>477.691524820691</v>
+        <v>1759.796352458257</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.691524820691</v>
+        <v>1759.796352458257</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G21" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H21" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I21" t="n">
-        <v>64.14840690919141</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J21" t="n">
-        <v>144.5298811612101</v>
+        <v>277.7415522543613</v>
       </c>
       <c r="K21" t="n">
-        <v>294.6147826485601</v>
+        <v>427.8264537417112</v>
       </c>
       <c r="L21" t="n">
-        <v>742.6170386413064</v>
+        <v>637.1615383564008</v>
       </c>
       <c r="M21" t="n">
-        <v>990.0466997665801</v>
+        <v>884.5911994816745</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.366492570714</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O21" t="n">
-        <v>1477.238310130523</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P21" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R21" t="n">
         <v>1815.841701345204</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>472.2380791487714</v>
+        <v>282.0721104367048</v>
       </c>
       <c r="C22" t="n">
-        <v>472.2380791487714</v>
+        <v>282.0721104367048</v>
       </c>
       <c r="D22" t="n">
-        <v>472.2380791487714</v>
+        <v>118.7553375634755</v>
       </c>
       <c r="E22" t="n">
-        <v>423.3024676356546</v>
+        <v>118.7553375634755</v>
       </c>
       <c r="F22" t="n">
-        <v>251.440693410215</v>
+        <v>118.7553375634755</v>
       </c>
       <c r="G22" t="n">
-        <v>251.440693410215</v>
+        <v>118.7553375634755</v>
       </c>
       <c r="H22" t="n">
-        <v>115.757414190205</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I22" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J22" t="n">
-        <v>164.151852271932</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K22" t="n">
-        <v>309.7291166865545</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L22" t="n">
-        <v>420.9942662744953</v>
+        <v>507.421643922498</v>
       </c>
       <c r="M22" t="n">
-        <v>952.3727174424728</v>
+        <v>1038.800095090475</v>
       </c>
       <c r="N22" t="n">
-        <v>1466.723416497847</v>
+        <v>1553.15079414585</v>
       </c>
       <c r="O22" t="n">
-        <v>1570.860832459529</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P22" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q22" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R22" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S22" t="n">
         <v>2017.283758241249</v>
       </c>
       <c r="T22" t="n">
-        <v>1777.84329079206</v>
+        <v>1777.843290792059</v>
       </c>
       <c r="U22" t="n">
-        <v>1497.708615232682</v>
+        <v>1497.708615232681</v>
       </c>
       <c r="V22" t="n">
-        <v>1215.997147840711</v>
+        <v>1215.99714784071</v>
       </c>
       <c r="W22" t="n">
-        <v>941.1447440132242</v>
+        <v>941.1447440132233</v>
       </c>
       <c r="X22" t="n">
-        <v>698.5808474590293</v>
+        <v>698.5808474590284</v>
       </c>
       <c r="Y22" t="n">
-        <v>472.2380791487714</v>
+        <v>472.2380791487705</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1766.179081245401</v>
+        <v>896.3079968646525</v>
       </c>
       <c r="C23" t="n">
-        <v>1766.179081245401</v>
+        <v>469.4072668779526</v>
       </c>
       <c r="D23" t="n">
-        <v>1573.87114156052</v>
+        <v>469.4072668779526</v>
       </c>
       <c r="E23" t="n">
-        <v>1147.894201708378</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="F23" t="n">
-        <v>722.7700198977777</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G23" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H23" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I23" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672852</v>
       </c>
       <c r="J23" t="n">
         <v>226.1880352922992</v>
       </c>
       <c r="K23" t="n">
-        <v>444.398509887343</v>
+        <v>444.3985098873429</v>
       </c>
       <c r="L23" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144765</v>
       </c>
       <c r="M23" t="n">
-        <v>1034.139376672044</v>
+        <v>1034.139376672043</v>
       </c>
       <c r="N23" t="n">
-        <v>1352.989294408674</v>
+        <v>1352.989294408673</v>
       </c>
       <c r="O23" t="n">
         <v>1651.903250255482</v>
@@ -6010,31 +6010,31 @@
         <v>1901.41298331237</v>
       </c>
       <c r="Q23" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R23" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S23" t="n">
-        <v>2171.516351290511</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T23" t="n">
-        <v>2171.516351290511</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="U23" t="n">
-        <v>2171.516351290511</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="V23" t="n">
-        <v>2171.516351290511</v>
+        <v>1756.015591051906</v>
       </c>
       <c r="W23" t="n">
-        <v>2171.516351290511</v>
+        <v>1713.365265742015</v>
       </c>
       <c r="X23" t="n">
-        <v>2171.516351290511</v>
+        <v>1301.645266909762</v>
       </c>
       <c r="Y23" t="n">
-        <v>1766.179081245401</v>
+        <v>896.3079968646525</v>
       </c>
     </row>
     <row r="24">
@@ -6059,13 +6059,13 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G24" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H24" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I24" t="n">
-        <v>64.14840690919141</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J24" t="n">
         <v>277.741552254361</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>692.5717279483482</v>
+        <v>688.2924093922816</v>
       </c>
       <c r="C25" t="n">
-        <v>692.5717279483482</v>
+        <v>516.3198462711975</v>
       </c>
       <c r="D25" t="n">
-        <v>546.844772898334</v>
+        <v>516.3198462711975</v>
       </c>
       <c r="E25" t="n">
-        <v>380.6365670511875</v>
+        <v>516.3198462711975</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7747928257479</v>
+        <v>344.4580720457579</v>
       </c>
       <c r="G25" t="n">
-        <v>43.43032702581021</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="H25" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I25" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J25" t="n">
-        <v>86.23013562371111</v>
+        <v>86.23013562371109</v>
       </c>
       <c r="K25" t="n">
-        <v>169.3817649716271</v>
+        <v>416.6643740856492</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4216439224989</v>
+        <v>854.860345275993</v>
       </c>
       <c r="M25" t="n">
-        <v>1038.800095090476</v>
+        <v>972.7033159811488</v>
       </c>
       <c r="N25" t="n">
-        <v>1553.150794145851</v>
+        <v>1089.021092194643</v>
       </c>
       <c r="O25" t="n">
-        <v>2034.990534410736</v>
+        <v>1570.860832459528</v>
       </c>
       <c r="P25" t="n">
-        <v>2121.000513751126</v>
+        <v>1969.627016373226</v>
       </c>
       <c r="Q25" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R25" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S25" t="n">
-        <v>2011.274638730568</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T25" t="n">
-        <v>1771.834171281379</v>
+        <v>1777.843290792059</v>
       </c>
       <c r="U25" t="n">
-        <v>1491.699495722001</v>
+        <v>1497.708615232681</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.98802833003</v>
+        <v>1215.99714784071</v>
       </c>
       <c r="W25" t="n">
-        <v>935.1356245025431</v>
+        <v>1215.99714784071</v>
       </c>
       <c r="X25" t="n">
-        <v>692.5717279483482</v>
+        <v>973.4332512865154</v>
       </c>
       <c r="Y25" t="n">
-        <v>692.5717279483482</v>
+        <v>747.0904829762575</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>43.43032702581021</v>
+        <v>1319.600617679652</v>
       </c>
       <c r="C26" t="n">
-        <v>43.43032702581021</v>
+        <v>892.6998876929524</v>
       </c>
       <c r="D26" t="n">
-        <v>43.43032702581021</v>
+        <v>469.4072668779526</v>
       </c>
       <c r="E26" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="F26" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G26" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H26" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I26" t="n">
         <v>86.09345146672854</v>
@@ -6229,49 +6229,49 @@
         <v>226.1880352922992</v>
       </c>
       <c r="K26" t="n">
-        <v>444.3985098873429</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L26" t="n">
-        <v>721.1044354144765</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M26" t="n">
-        <v>1034.139376672044</v>
+        <v>1034.139376672043</v>
       </c>
       <c r="N26" t="n">
-        <v>1352.989294408674</v>
+        <v>1352.989294408673</v>
       </c>
       <c r="O26" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255481</v>
       </c>
       <c r="P26" t="n">
         <v>1901.41298331237</v>
       </c>
       <c r="Q26" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R26" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S26" t="n">
-        <v>2113.505005925658</v>
+        <v>2151.168980803435</v>
       </c>
       <c r="T26" t="n">
-        <v>1901.48445595573</v>
+        <v>2151.168980803435</v>
       </c>
       <c r="U26" t="n">
-        <v>1643.292288226347</v>
+        <v>2151.168980803435</v>
       </c>
       <c r="V26" t="n">
-        <v>1285.802873352597</v>
+        <v>2151.168980803435</v>
       </c>
       <c r="W26" t="n">
-        <v>889.4115236529437</v>
+        <v>2151.168980803435</v>
       </c>
       <c r="X26" t="n">
-        <v>477.691524820691</v>
+        <v>1739.448981971182</v>
       </c>
       <c r="Y26" t="n">
-        <v>72.3542547755813</v>
+        <v>1739.448981971182</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G27" t="n">
-        <v>86.29446917954515</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H27" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I27" t="n">
-        <v>87.60571275360324</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J27" t="n">
-        <v>167.9871870056219</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K27" t="n">
-        <v>533.2819540266169</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L27" t="n">
-        <v>742.6170386413064</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M27" t="n">
-        <v>990.0466997665801</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.366492570714</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O27" t="n">
-        <v>1477.238310130523</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P27" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q27" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R27" t="n">
         <v>1815.841701345204</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>276.0629909260246</v>
+        <v>586.7300294045283</v>
       </c>
       <c r="C28" t="n">
-        <v>104.0904278049406</v>
+        <v>414.7574662834443</v>
       </c>
       <c r="D28" t="n">
-        <v>43.43032702581021</v>
+        <v>251.440693410215</v>
       </c>
       <c r="E28" t="n">
-        <v>43.43032702581021</v>
+        <v>251.440693410215</v>
       </c>
       <c r="F28" t="n">
-        <v>43.43032702581021</v>
+        <v>251.440693410215</v>
       </c>
       <c r="G28" t="n">
-        <v>43.43032702581021</v>
+        <v>251.440693410215</v>
       </c>
       <c r="H28" t="n">
-        <v>43.43032702581021</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="I28" t="n">
-        <v>43.43032702581021</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J28" t="n">
-        <v>86.23013562371111</v>
+        <v>102.8688427442759</v>
       </c>
       <c r="K28" t="n">
-        <v>169.3817649716271</v>
+        <v>433.303081206214</v>
       </c>
       <c r="L28" t="n">
-        <v>356.0481465445997</v>
+        <v>920.9571243853197</v>
       </c>
       <c r="M28" t="n">
-        <v>887.4265977125772</v>
+        <v>1038.800095090475</v>
       </c>
       <c r="N28" t="n">
-        <v>1401.777296767952</v>
+        <v>1553.15079414585</v>
       </c>
       <c r="O28" t="n">
-        <v>1883.617037032837</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P28" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q28" t="n">
-        <v>2171.516351290511</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R28" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S28" t="n">
-        <v>2011.274638730568</v>
+        <v>2131.775708497006</v>
       </c>
       <c r="T28" t="n">
-        <v>1771.834171281379</v>
+        <v>1892.335241047817</v>
       </c>
       <c r="U28" t="n">
-        <v>1491.699495722001</v>
+        <v>1612.200565488439</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.98802833003</v>
+        <v>1330.489098096468</v>
       </c>
       <c r="W28" t="n">
-        <v>935.1356245025431</v>
+        <v>1055.636694268981</v>
       </c>
       <c r="X28" t="n">
-        <v>692.5717279483482</v>
+        <v>813.0727977147862</v>
       </c>
       <c r="Y28" t="n">
-        <v>466.2289596380903</v>
+        <v>586.7300294045283</v>
       </c>
     </row>
     <row r="29">
@@ -6466,13 +6466,13 @@
         <v>226.1880352922992</v>
       </c>
       <c r="K29" t="n">
-        <v>444.3985098873429</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L29" t="n">
-        <v>721.1044354144765</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M29" t="n">
-        <v>1034.139376672044</v>
+        <v>1034.139376672043</v>
       </c>
       <c r="N29" t="n">
         <v>1352.989294408674</v>
@@ -6481,7 +6481,7 @@
         <v>1651.903250255482</v>
       </c>
       <c r="P29" t="n">
-        <v>1901.41298331237</v>
+        <v>1901.412983312371</v>
       </c>
       <c r="Q29" t="n">
         <v>2080.956330428339</v>
@@ -6490,25 +6490,25 @@
         <v>2171.516351290511</v>
       </c>
       <c r="S29" t="n">
-        <v>2113.505005925658</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T29" t="n">
-        <v>1901.48445595573</v>
+        <v>1959.495801320582</v>
       </c>
       <c r="U29" t="n">
-        <v>1643.292288226347</v>
+        <v>1701.3036335912</v>
       </c>
       <c r="V29" t="n">
-        <v>1643.292288226347</v>
+        <v>1547.318029970159</v>
       </c>
       <c r="W29" t="n">
-        <v>1246.900938526694</v>
+        <v>1150.926680270506</v>
       </c>
       <c r="X29" t="n">
-        <v>835.1809396944416</v>
+        <v>1150.926680270506</v>
       </c>
       <c r="Y29" t="n">
-        <v>835.1809396944416</v>
+        <v>745.5894102253965</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>64.14840690919141</v>
       </c>
       <c r="J30" t="n">
-        <v>144.5298811612101</v>
+        <v>383.1970525392668</v>
       </c>
       <c r="K30" t="n">
-        <v>294.6147826485601</v>
+        <v>533.2819540266169</v>
       </c>
       <c r="L30" t="n">
-        <v>503.9498672632496</v>
+        <v>742.6170386413064</v>
       </c>
       <c r="M30" t="n">
-        <v>751.3795283885233</v>
+        <v>990.0466997665801</v>
       </c>
       <c r="N30" t="n">
-        <v>1007.699321192657</v>
+        <v>1246.366492570714</v>
       </c>
       <c r="O30" t="n">
-        <v>1238.571138752467</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P30" t="n">
-        <v>1420.724503098659</v>
+        <v>1659.391674476716</v>
       </c>
       <c r="Q30" t="n">
         <v>1773.044505227723</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>923.9362694299057</v>
+        <v>436.3047034859669</v>
       </c>
       <c r="C31" t="n">
-        <v>751.9637063088217</v>
+        <v>264.3321403648829</v>
       </c>
       <c r="D31" t="n">
-        <v>588.6469334355924</v>
+        <v>264.3321403648829</v>
       </c>
       <c r="E31" t="n">
-        <v>588.6469334355924</v>
+        <v>264.3321403648829</v>
       </c>
       <c r="F31" t="n">
-        <v>416.7851592101528</v>
+        <v>92.47036613944331</v>
       </c>
       <c r="G31" t="n">
-        <v>251.440693410215</v>
+        <v>92.47036613944331</v>
       </c>
       <c r="H31" t="n">
-        <v>115.757414190205</v>
+        <v>92.47036613944331</v>
       </c>
       <c r="I31" t="n">
         <v>43.43032702581021</v>
@@ -6624,19 +6624,19 @@
         <v>86.23013562371111</v>
       </c>
       <c r="K31" t="n">
-        <v>169.3817649716271</v>
+        <v>416.6643740856492</v>
       </c>
       <c r="L31" t="n">
-        <v>657.0358081507329</v>
+        <v>527.92952367359</v>
       </c>
       <c r="M31" t="n">
-        <v>1188.41425931871</v>
+        <v>1059.307974841568</v>
       </c>
       <c r="N31" t="n">
-        <v>1702.764958374085</v>
+        <v>1573.658673896942</v>
       </c>
       <c r="O31" t="n">
-        <v>1883.617037032837</v>
+        <v>1677.796089858624</v>
       </c>
       <c r="P31" t="n">
         <v>1969.627016373227</v>
@@ -6648,25 +6648,25 @@
         <v>2171.516351290511</v>
       </c>
       <c r="S31" t="n">
-        <v>2017.283758241249</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T31" t="n">
-        <v>1777.84329079206</v>
+        <v>1932.075883841321</v>
       </c>
       <c r="U31" t="n">
-        <v>1777.84329079206</v>
+        <v>1651.941208281944</v>
       </c>
       <c r="V31" t="n">
-        <v>1777.84329079206</v>
+        <v>1370.229740889972</v>
       </c>
       <c r="W31" t="n">
-        <v>1583.008903006424</v>
+        <v>1095.377337062485</v>
       </c>
       <c r="X31" t="n">
-        <v>1340.445006452229</v>
+        <v>852.8134405082905</v>
       </c>
       <c r="Y31" t="n">
-        <v>1114.102238141971</v>
+        <v>626.4706721980325</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1744.724799490252</v>
+        <v>470.3310570125101</v>
       </c>
       <c r="C32" t="n">
-        <v>1317.824069503552</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="D32" t="n">
-        <v>894.5314486885525</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="E32" t="n">
-        <v>468.55450883641</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="F32" t="n">
         <v>43.43032702581021</v>
@@ -6697,16 +6697,16 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I32" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J32" t="n">
         <v>226.1880352922992</v>
       </c>
       <c r="K32" t="n">
-        <v>444.3985098873434</v>
+        <v>444.3985098873432</v>
       </c>
       <c r="L32" t="n">
-        <v>721.1044354144769</v>
+        <v>721.1044354144766</v>
       </c>
       <c r="M32" t="n">
         <v>1034.139376672044</v>
@@ -6715,10 +6715,10 @@
         <v>1352.989294408674</v>
       </c>
       <c r="O32" t="n">
-        <v>1651.903250255483</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P32" t="n">
-        <v>1901.412983312371</v>
+        <v>1901.41298331237</v>
       </c>
       <c r="Q32" t="n">
         <v>2080.956330428339</v>
@@ -6727,25 +6727,25 @@
         <v>2171.516351290511</v>
       </c>
       <c r="S32" t="n">
-        <v>2171.516351290511</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T32" t="n">
-        <v>2141.116149189905</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="U32" t="n">
-        <v>2141.116149189905</v>
+        <v>1855.312838196276</v>
       </c>
       <c r="V32" t="n">
-        <v>2141.116149189905</v>
+        <v>1683.779675589526</v>
       </c>
       <c r="W32" t="n">
-        <v>1744.724799490252</v>
+        <v>1287.388325889872</v>
       </c>
       <c r="X32" t="n">
-        <v>1744.724799490252</v>
+        <v>875.6683270576198</v>
       </c>
       <c r="Y32" t="n">
-        <v>1744.724799490252</v>
+        <v>470.3310570125101</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I33" t="n">
-        <v>64.14840690919141</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J33" t="n">
-        <v>144.5298811612101</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K33" t="n">
-        <v>294.6147826485601</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L33" t="n">
-        <v>503.9498672632496</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M33" t="n">
-        <v>751.3795283885233</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N33" t="n">
-        <v>1007.699321192657</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O33" t="n">
-        <v>1238.571138752467</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P33" t="n">
-        <v>1420.724503098659</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q33" t="n">
         <v>1667.589004942817</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>276.0629909260246</v>
+        <v>974.2831953403194</v>
       </c>
       <c r="C34" t="n">
-        <v>104.0904278049406</v>
+        <v>802.3106322192353</v>
       </c>
       <c r="D34" t="n">
-        <v>43.43032702581021</v>
+        <v>638.993859346006</v>
       </c>
       <c r="E34" t="n">
-        <v>43.43032702581021</v>
+        <v>516.3198462711975</v>
       </c>
       <c r="F34" t="n">
-        <v>43.43032702581021</v>
+        <v>344.4580720457579</v>
       </c>
       <c r="G34" t="n">
-        <v>43.43032702581021</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="H34" t="n">
         <v>43.43032702581021</v>
@@ -6858,13 +6858,13 @@
         <v>43.43032702581021</v>
       </c>
       <c r="J34" t="n">
-        <v>86.23013562371111</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K34" t="n">
-        <v>169.3817649716271</v>
+        <v>494.5860907338701</v>
       </c>
       <c r="L34" t="n">
-        <v>356.0481465445997</v>
+        <v>769.5836270074215</v>
       </c>
       <c r="M34" t="n">
         <v>887.4265977125772</v>
@@ -6894,16 +6894,16 @@
         <v>1491.699495722001</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.98802833003</v>
+        <v>1491.699495722001</v>
       </c>
       <c r="W34" t="n">
-        <v>935.1356245025431</v>
+        <v>1216.847091894514</v>
       </c>
       <c r="X34" t="n">
-        <v>692.5717279483482</v>
+        <v>974.2831953403194</v>
       </c>
       <c r="Y34" t="n">
-        <v>466.2289596380903</v>
+        <v>974.2831953403194</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2113.505005925658</v>
+        <v>1223.443923934817</v>
       </c>
       <c r="C35" t="n">
-        <v>1720.128860986533</v>
+        <v>1223.443923934817</v>
       </c>
       <c r="D35" t="n">
-        <v>1296.836240171534</v>
+        <v>800.1513031198176</v>
       </c>
       <c r="E35" t="n">
-        <v>870.8593003193911</v>
+        <v>800.1513031198176</v>
       </c>
       <c r="F35" t="n">
-        <v>445.7351185087913</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="G35" t="n">
-        <v>43.43032702581021</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H35" t="n">
         <v>43.43032702581021</v>
       </c>
       <c r="I35" t="n">
-        <v>86.09345146672877</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J35" t="n">
-        <v>226.1880352922994</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K35" t="n">
-        <v>444.3985098873432</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L35" t="n">
-        <v>721.1044354144767</v>
+        <v>721.1044354144765</v>
       </c>
       <c r="M35" t="n">
         <v>1034.139376672044</v>
@@ -6955,7 +6955,7 @@
         <v>1651.903250255482</v>
       </c>
       <c r="P35" t="n">
-        <v>1901.41298331237</v>
+        <v>1901.412983312371</v>
       </c>
       <c r="Q35" t="n">
         <v>2080.956330428339</v>
@@ -6967,22 +6967,22 @@
         <v>2113.505005925658</v>
       </c>
       <c r="T35" t="n">
-        <v>2113.505005925658</v>
+        <v>1901.48445595573</v>
       </c>
       <c r="U35" t="n">
-        <v>2113.505005925658</v>
+        <v>1643.292288226347</v>
       </c>
       <c r="V35" t="n">
-        <v>2113.505005925658</v>
+        <v>1643.292288226347</v>
       </c>
       <c r="W35" t="n">
-        <v>2113.505005925658</v>
+        <v>1643.292288226347</v>
       </c>
       <c r="X35" t="n">
-        <v>2113.505005925658</v>
+        <v>1643.292288226347</v>
       </c>
       <c r="Y35" t="n">
-        <v>2113.505005925658</v>
+        <v>1643.292288226347</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I36" t="n">
-        <v>87.60571275360324</v>
+        <v>64.14840690919141</v>
       </c>
       <c r="J36" t="n">
-        <v>277.741552254361</v>
+        <v>144.5298811612101</v>
       </c>
       <c r="K36" t="n">
-        <v>427.826453741711</v>
+        <v>533.2819540266169</v>
       </c>
       <c r="L36" t="n">
-        <v>637.1615383564006</v>
+        <v>742.6170386413064</v>
       </c>
       <c r="M36" t="n">
-        <v>884.5911994816743</v>
+        <v>990.0466997665801</v>
       </c>
       <c r="N36" t="n">
-        <v>1140.910992285808</v>
+        <v>1246.366492570714</v>
       </c>
       <c r="O36" t="n">
-        <v>1371.782809845618</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P36" t="n">
-        <v>1553.93617419181</v>
+        <v>1659.391674476716</v>
       </c>
       <c r="Q36" t="n">
-        <v>1667.589004942817</v>
+        <v>1773.044505227723</v>
       </c>
       <c r="R36" t="n">
         <v>1815.841701345204</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>276.0629909260246</v>
+        <v>387.2646643723338</v>
       </c>
       <c r="C37" t="n">
-        <v>104.0904278049406</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="D37" t="n">
-        <v>43.43032702581021</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="E37" t="n">
-        <v>43.43032702581021</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="F37" t="n">
         <v>43.43032702581021</v>
@@ -7098,49 +7098,49 @@
         <v>86.23013562371111</v>
       </c>
       <c r="K37" t="n">
-        <v>416.6643740856492</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L37" t="n">
-        <v>904.318417264755</v>
+        <v>507.4216439224989</v>
       </c>
       <c r="M37" t="n">
-        <v>1022.161387969911</v>
+        <v>1038.800095090476</v>
       </c>
       <c r="N37" t="n">
-        <v>1138.479164183405</v>
+        <v>1553.150794145851</v>
       </c>
       <c r="O37" t="n">
-        <v>1620.31890444829</v>
+        <v>2034.990534410736</v>
       </c>
       <c r="P37" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q37" t="n">
         <v>2171.516351290511</v>
       </c>
       <c r="R37" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S37" t="n">
-        <v>2011.274638730568</v>
+        <v>2122.476312176877</v>
       </c>
       <c r="T37" t="n">
-        <v>1771.834171281379</v>
+        <v>1883.035844727688</v>
       </c>
       <c r="U37" t="n">
-        <v>1491.699495722001</v>
+        <v>1602.90116916831</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.98802833003</v>
+        <v>1321.189701776339</v>
       </c>
       <c r="W37" t="n">
-        <v>935.1356245025431</v>
+        <v>1046.337297948852</v>
       </c>
       <c r="X37" t="n">
-        <v>692.5717279483482</v>
+        <v>803.7734013946574</v>
       </c>
       <c r="Y37" t="n">
-        <v>466.2289596380903</v>
+        <v>577.4306330843995</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1596.635519068639</v>
+        <v>1147.894201708378</v>
       </c>
       <c r="C38" t="n">
-        <v>1169.734789081939</v>
+        <v>1147.894201708378</v>
       </c>
       <c r="D38" t="n">
-        <v>746.4421682669391</v>
+        <v>1147.894201708378</v>
       </c>
       <c r="E38" t="n">
-        <v>320.4652284147967</v>
+        <v>1147.894201708378</v>
       </c>
       <c r="F38" t="n">
-        <v>320.4652284147967</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="G38" t="n">
         <v>320.4652284147967</v>
@@ -7171,19 +7171,19 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I38" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J38" t="n">
         <v>226.1880352922992</v>
       </c>
       <c r="K38" t="n">
-        <v>444.398509887343</v>
+        <v>444.3985098873432</v>
       </c>
       <c r="L38" t="n">
-        <v>721.1044354144764</v>
+        <v>721.1044354144766</v>
       </c>
       <c r="M38" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N38" t="n">
         <v>1352.989294408674</v>
@@ -7192,7 +7192,7 @@
         <v>1651.903250255482</v>
       </c>
       <c r="P38" t="n">
-        <v>1901.412983312371</v>
+        <v>1901.41298331237</v>
       </c>
       <c r="Q38" t="n">
         <v>2080.956330428339</v>
@@ -7204,22 +7204,22 @@
         <v>2113.505005925658</v>
       </c>
       <c r="T38" t="n">
-        <v>2001.972789113748</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="U38" t="n">
-        <v>2001.972789113748</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="V38" t="n">
-        <v>2001.972789113748</v>
+        <v>1756.015591051907</v>
       </c>
       <c r="W38" t="n">
-        <v>2001.972789113748</v>
+        <v>1756.015591051907</v>
       </c>
       <c r="X38" t="n">
-        <v>2001.972789113748</v>
+        <v>1344.295592219655</v>
       </c>
       <c r="Y38" t="n">
-        <v>1596.635519068639</v>
+        <v>1147.894201708378</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>43.43032702581021</v>
       </c>
       <c r="I39" t="n">
-        <v>87.60571275360324</v>
+        <v>64.14840690919141</v>
       </c>
       <c r="J39" t="n">
-        <v>277.741552254361</v>
+        <v>144.5298811612101</v>
       </c>
       <c r="K39" t="n">
-        <v>427.826453741711</v>
+        <v>533.2819540266169</v>
       </c>
       <c r="L39" t="n">
-        <v>637.1615383564006</v>
+        <v>742.6170386413064</v>
       </c>
       <c r="M39" t="n">
-        <v>884.5911994816743</v>
+        <v>990.0466997665801</v>
       </c>
       <c r="N39" t="n">
-        <v>1140.910992285808</v>
+        <v>1246.366492570714</v>
       </c>
       <c r="O39" t="n">
-        <v>1371.782809845618</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P39" t="n">
-        <v>1553.93617419181</v>
+        <v>1659.391674476716</v>
       </c>
       <c r="Q39" t="n">
-        <v>1667.589004942817</v>
+        <v>1773.044505227723</v>
       </c>
       <c r="R39" t="n">
         <v>1815.841701345204</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>466.2289596380903</v>
+        <v>436.3047034859669</v>
       </c>
       <c r="C40" t="n">
-        <v>294.2563965170062</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="D40" t="n">
-        <v>294.2563965170062</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="E40" t="n">
-        <v>287.6191884156445</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="F40" t="n">
-        <v>115.757414190205</v>
+        <v>208.7747928257479</v>
       </c>
       <c r="G40" t="n">
-        <v>115.757414190205</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H40" t="n">
-        <v>115.757414190205</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I40" t="n">
         <v>43.43032702581021</v>
@@ -7335,49 +7335,49 @@
         <v>86.23013562371111</v>
       </c>
       <c r="K40" t="n">
-        <v>416.6643740856492</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L40" t="n">
-        <v>854.860345275994</v>
+        <v>657.0358081507329</v>
       </c>
       <c r="M40" t="n">
-        <v>972.7033159811497</v>
+        <v>1188.41425931871</v>
       </c>
       <c r="N40" t="n">
-        <v>1089.021092194644</v>
+        <v>1304.732035532204</v>
       </c>
       <c r="O40" t="n">
-        <v>1570.860832459529</v>
+        <v>1722.234329837428</v>
       </c>
       <c r="P40" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q40" t="n">
         <v>2171.516351290511</v>
       </c>
       <c r="R40" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S40" t="n">
-        <v>2011.274638730568</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T40" t="n">
-        <v>1771.834171281379</v>
+        <v>1932.075883841321</v>
       </c>
       <c r="U40" t="n">
-        <v>1491.699495722001</v>
+        <v>1651.941208281944</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.98802833003</v>
+        <v>1370.229740889972</v>
       </c>
       <c r="W40" t="n">
-        <v>935.1356245025431</v>
+        <v>1095.377337062485</v>
       </c>
       <c r="X40" t="n">
-        <v>692.5717279483482</v>
+        <v>852.8134405082905</v>
       </c>
       <c r="Y40" t="n">
-        <v>466.2289596380903</v>
+        <v>626.4706721980325</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>538.219368421965</v>
+        <v>477.691524820691</v>
       </c>
       <c r="C41" t="n">
-        <v>111.3186384352651</v>
+        <v>477.691524820691</v>
       </c>
       <c r="D41" t="n">
-        <v>111.3186384352651</v>
+        <v>477.691524820691</v>
       </c>
       <c r="E41" t="n">
-        <v>111.3186384352651</v>
+        <v>477.691524820691</v>
       </c>
       <c r="F41" t="n">
-        <v>111.3186384352651</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="G41" t="n">
-        <v>43.43032702581021</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H41" t="n">
         <v>43.43032702581021</v>
@@ -7438,25 +7438,25 @@
         <v>2171.516351290511</v>
       </c>
       <c r="S41" t="n">
-        <v>2171.516351290511</v>
+        <v>2113.505005925658</v>
       </c>
       <c r="T41" t="n">
-        <v>2171.516351290511</v>
+        <v>1901.48445595573</v>
       </c>
       <c r="U41" t="n">
-        <v>2171.516351290511</v>
+        <v>1643.292288226347</v>
       </c>
       <c r="V41" t="n">
-        <v>2171.516351290511</v>
+        <v>1285.802873352597</v>
       </c>
       <c r="W41" t="n">
-        <v>1775.125001590857</v>
+        <v>889.4115236529437</v>
       </c>
       <c r="X41" t="n">
-        <v>1363.405002758605</v>
+        <v>477.691524820691</v>
       </c>
       <c r="Y41" t="n">
-        <v>958.067732713495</v>
+        <v>477.691524820691</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>64.14840690919141</v>
       </c>
       <c r="J42" t="n">
-        <v>383.1970525392668</v>
+        <v>144.5298811612101</v>
       </c>
       <c r="K42" t="n">
-        <v>533.2819540266169</v>
+        <v>294.6147826485601</v>
       </c>
       <c r="L42" t="n">
-        <v>742.6170386413064</v>
+        <v>503.9498672632496</v>
       </c>
       <c r="M42" t="n">
-        <v>990.0466997665801</v>
+        <v>751.3795283885233</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.366492570714</v>
+        <v>1007.699321192657</v>
       </c>
       <c r="O42" t="n">
-        <v>1477.238310130523</v>
+        <v>1238.571138752467</v>
       </c>
       <c r="P42" t="n">
-        <v>1659.391674476716</v>
+        <v>1420.724503098659</v>
       </c>
       <c r="Q42" t="n">
         <v>1773.044505227723</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>508.4148787469637</v>
+        <v>387.2646643723338</v>
       </c>
       <c r="C43" t="n">
-        <v>336.4423156258797</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="D43" t="n">
-        <v>173.1255427526504</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="E43" t="n">
-        <v>173.1255427526504</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="F43" t="n">
-        <v>173.1255427526504</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="G43" t="n">
-        <v>173.1255427526504</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H43" t="n">
         <v>43.43032702581021</v>
@@ -7575,46 +7575,46 @@
         <v>169.3817649716271</v>
       </c>
       <c r="L43" t="n">
-        <v>280.6469145595679</v>
+        <v>657.0358081507329</v>
       </c>
       <c r="M43" t="n">
-        <v>574.6703931392694</v>
+        <v>774.8787788558886</v>
       </c>
       <c r="N43" t="n">
-        <v>1089.021092194644</v>
+        <v>1289.229477911263</v>
       </c>
       <c r="O43" t="n">
-        <v>1570.860832459529</v>
+        <v>1722.234329837428</v>
       </c>
       <c r="P43" t="n">
-        <v>1969.627016373227</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q43" t="n">
         <v>2171.516351290511</v>
       </c>
       <c r="R43" t="n">
-        <v>2171.516351290511</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="S43" t="n">
-        <v>2017.283758241249</v>
+        <v>2122.476312176877</v>
       </c>
       <c r="T43" t="n">
-        <v>1777.84329079206</v>
+        <v>1883.035844727688</v>
       </c>
       <c r="U43" t="n">
-        <v>1497.708615232682</v>
+        <v>1602.90116916831</v>
       </c>
       <c r="V43" t="n">
-        <v>1215.997147840711</v>
+        <v>1321.189701776339</v>
       </c>
       <c r="W43" t="n">
-        <v>941.1447440132242</v>
+        <v>1046.337297948852</v>
       </c>
       <c r="X43" t="n">
-        <v>698.5808474590293</v>
+        <v>803.7734013946574</v>
       </c>
       <c r="Y43" t="n">
-        <v>698.5808474590293</v>
+        <v>577.4306330843995</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2000.77187154722</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="C44" t="n">
-        <v>1573.87114156052</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="D44" t="n">
-        <v>1573.87114156052</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="E44" t="n">
-        <v>1147.894201708378</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="F44" t="n">
         <v>722.7700198977777</v>
@@ -7651,10 +7651,10 @@
         <v>226.1880352922992</v>
       </c>
       <c r="K44" t="n">
-        <v>444.3985098873434</v>
+        <v>444.3985098873429</v>
       </c>
       <c r="L44" t="n">
-        <v>721.1044354144769</v>
+        <v>721.1044354144765</v>
       </c>
       <c r="M44" t="n">
         <v>1034.139376672044</v>
@@ -7678,22 +7678,22 @@
         <v>2113.505005925658</v>
       </c>
       <c r="T44" t="n">
-        <v>2113.505005925658</v>
+        <v>1901.48445595573</v>
       </c>
       <c r="U44" t="n">
-        <v>2113.505005925658</v>
+        <v>1888.370783303434</v>
       </c>
       <c r="V44" t="n">
-        <v>2000.77187154722</v>
+        <v>1530.881368429684</v>
       </c>
       <c r="W44" t="n">
-        <v>2000.77187154722</v>
+        <v>1134.49001873003</v>
       </c>
       <c r="X44" t="n">
-        <v>2000.77187154722</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="Y44" t="n">
-        <v>2000.77187154722</v>
+        <v>722.7700198977777</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>378.7196630201235</v>
+        <v>436.3047034859669</v>
       </c>
       <c r="C46" t="n">
-        <v>206.7470998990395</v>
+        <v>436.3047034859669</v>
       </c>
       <c r="D46" t="n">
-        <v>43.43032702581021</v>
+        <v>272.9879306127376</v>
       </c>
       <c r="E46" t="n">
-        <v>43.43032702581021</v>
+        <v>272.9879306127376</v>
       </c>
       <c r="F46" t="n">
-        <v>43.43032702581021</v>
+        <v>272.9879306127376</v>
       </c>
       <c r="G46" t="n">
-        <v>43.43032702581021</v>
+        <v>251.440693410215</v>
       </c>
       <c r="H46" t="n">
-        <v>43.43032702581021</v>
+        <v>115.757414190205</v>
       </c>
       <c r="I46" t="n">
         <v>43.43032702581021</v>
@@ -7815,13 +7815,13 @@
         <v>657.0358081507329</v>
       </c>
       <c r="M46" t="n">
-        <v>1038.800095090476</v>
+        <v>1188.41425931871</v>
       </c>
       <c r="N46" t="n">
-        <v>1553.150794145851</v>
+        <v>1618.096913875746</v>
       </c>
       <c r="O46" t="n">
-        <v>2034.990534410736</v>
+        <v>1722.234329837428</v>
       </c>
       <c r="P46" t="n">
         <v>2121.000513751126</v>
@@ -7833,25 +7833,25 @@
         <v>2171.516351290511</v>
       </c>
       <c r="S46" t="n">
-        <v>2017.283758241249</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T46" t="n">
-        <v>1777.84329079206</v>
+        <v>1932.075883841321</v>
       </c>
       <c r="U46" t="n">
-        <v>1497.708615232682</v>
+        <v>1651.941208281944</v>
       </c>
       <c r="V46" t="n">
-        <v>1312.644700424129</v>
+        <v>1370.229740889972</v>
       </c>
       <c r="W46" t="n">
-        <v>1037.792296596642</v>
+        <v>1095.377337062485</v>
       </c>
       <c r="X46" t="n">
-        <v>795.2284000424471</v>
+        <v>852.8134405082905</v>
       </c>
       <c r="Y46" t="n">
-        <v>568.8856317321892</v>
+        <v>626.4706721980325</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>241.0779508869255</v>
+        <v>110.8629952007469</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>121.1139600778182</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>252.8510461274958</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>241.0779508869254</v>
+        <v>110.8629952007467</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>84.91885284587953</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>398.324274165423</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>241.0779508869263</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0779508869255</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9333,16 +9333,16 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>166.7129468663112</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.23606943527018</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>110.8629952007469</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>241.077950886926</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>63.05619703707727</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>229.065383194879</v>
       </c>
       <c r="M22" t="n">
         <v>417.7126065281028</v>
@@ -9573,13 +9573,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>134.5572435284353</v>
+        <v>110.8629952007466</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>229.0653831948798</v>
+        <v>330.2331531337405</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>110.8629952007466</v>
       </c>
       <c r="K27" t="n">
-        <v>217.3837025592373</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>16.80677486925735</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>76.16286059094122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>241.077950886926</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>241.0779508869259</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10272,10 +10272,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
@@ -10284,10 +10284,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>77.48955827986893</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>207.8999466406191</v>
       </c>
       <c r="Q31" t="n">
         <v>152.9025226039384</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>110.8629952007465</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>134.5572435284352</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>76.16286059094122</v>
+        <v>165.3862491773844</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>110.8629952007465</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>241.077950886926</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>229.0653831948798</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>265.9577096813603</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>110.8629952007465</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>241.077950886926</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>330.2331531337413</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>316.5301801449918</v>
       </c>
       <c r="P40" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>241.077950886926</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>241.0779508869259</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11223,22 +11223,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>177.9601089641876</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>332.1893292570538</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11463,16 +11463,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>266.5871881157451</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>316.5301801449918</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>307.453891572196</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>209.9003444702288</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6102460520883</v>
+        <v>102.6879387000757</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11.52523873703737</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.60381629275079</v>
+        <v>12.66692521098527</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.2817435681513</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>248.0577448861567</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>255.6102460520883</v>
       </c>
       <c r="V14" t="n">
-        <v>257.8636093851788</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S16" t="n">
-        <v>12.66692521098437</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T16" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>115.1413824194428</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.43123191120419</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>193.2435600197961</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>182.5933157276261</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.12905502978813</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>64.81456793788963</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S19" t="n">
         <v>152.6902671187685</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.6042348241766</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -23986,7 +23986,7 @@
         <v>398.2817435681513</v>
       </c>
       <c r="H20" t="n">
-        <v>274.2645523750966</v>
+        <v>253.2764251317655</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>116.0998683906894</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>163.6910211419383</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>59.75468599552127</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.949028315574168</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>228.6748343188174</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.9003444702288</v>
@@ -24265,13 +24265,13 @@
         <v>255.6102460520883</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>350.203614145864</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>130.0542161768088</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>17.41391964498291</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>71.60381629275079</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>387.0151921763414</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>37.28733512900056</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6301053731579</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -24618,10 +24618,10 @@
         <v>163.6910211419383</v>
       </c>
       <c r="H28" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>113.3470307532001</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>326.9542664742601</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>201.4687731401824</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>23.05417757025403</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>5.949028315574168</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>79.21783588143251</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24922,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>398.2817435681513</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>179.8041443906295</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>184.0966897443305</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6301053731579</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>43.09885084461457</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>71.60381629275079</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>33.18933919709963</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>344.2654696026743</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6301053731579</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.6910211419383</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>104.1406283962717</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>99.48344982643833</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U38" t="n">
         <v>255.6102460520883</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>206.8465207384943</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>115.1413824194416</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>157.9752877683269</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>134.3264464278099</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25639,13 +25639,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>265.2189065506584</v>
       </c>
       <c r="G41" t="n">
-        <v>331.0723152727909</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H41" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.6910211419383</v>
       </c>
       <c r="H43" t="n">
-        <v>5.928182858238159</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I43" t="n">
         <v>71.60381629275079</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>110.0896567118459</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,16 +25867,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6102460520883</v>
+        <v>242.6277101263157</v>
       </c>
       <c r="V44" t="n">
-        <v>242.3087176903593</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6910211419383</v>
+        <v>142.359256311441</v>
       </c>
       <c r="H46" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>5.949028315574168</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>95.68107705758356</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>319716.7075977194</v>
+        <v>319716.7075977193</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>319716.7075977194</v>
+        <v>319716.7075977193</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>319716.7075977194</v>
+        <v>319716.7075977193</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>319716.7075977194</v>
+        <v>319716.7075977193</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>319716.7075977193</v>
+        <v>319716.7075977194</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>319716.7075977194</v>
+        <v>319716.7075977193</v>
       </c>
     </row>
     <row r="15">
@@ -26322,16 +26322,16 @@
         <v>516392.4779771537</v>
       </c>
       <c r="E2" t="n">
-        <v>310221.169092518</v>
+        <v>310221.1690925179</v>
       </c>
       <c r="F2" t="n">
         <v>310221.1690925179</v>
       </c>
       <c r="G2" t="n">
-        <v>310221.1690925181</v>
+        <v>310221.1690925179</v>
       </c>
       <c r="H2" t="n">
-        <v>310221.169092518</v>
+        <v>310221.1690925178</v>
       </c>
       <c r="I2" t="n">
         <v>310221.169092518</v>
@@ -26340,22 +26340,22 @@
         <v>310221.169092518</v>
       </c>
       <c r="K2" t="n">
+        <v>310221.1690925181</v>
+      </c>
+      <c r="L2" t="n">
         <v>310221.169092518</v>
       </c>
-      <c r="L2" t="n">
-        <v>310221.1690925179</v>
-      </c>
       <c r="M2" t="n">
+        <v>310221.1690925182</v>
+      </c>
+      <c r="N2" t="n">
         <v>310221.169092518</v>
-      </c>
-      <c r="N2" t="n">
-        <v>310221.1690925182</v>
       </c>
       <c r="O2" t="n">
         <v>310221.169092518</v>
       </c>
       <c r="P2" t="n">
-        <v>310221.169092518</v>
+        <v>310221.1690925181</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>32673.69813039072</v>
       </c>
       <c r="E3" t="n">
-        <v>533917.0150263608</v>
+        <v>533917.0150263605</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>135287.6402017503</v>
+        <v>135287.64020175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>314184.0062477362</v>
       </c>
       <c r="E4" t="n">
-        <v>27177.95692102548</v>
+        <v>27177.9569210255</v>
       </c>
       <c r="F4" t="n">
         <v>27177.95692102549</v>
       </c>
       <c r="G4" t="n">
-        <v>27177.9569210255</v>
+        <v>27177.95692102551</v>
       </c>
       <c r="H4" t="n">
         <v>27177.9569210255</v>
       </c>
       <c r="I4" t="n">
-        <v>27177.95692102551</v>
+        <v>27177.95692102549</v>
       </c>
       <c r="J4" t="n">
+        <v>27177.95692102549</v>
+      </c>
+      <c r="K4" t="n">
         <v>27177.9569210255</v>
-      </c>
-      <c r="K4" t="n">
-        <v>27177.95692102551</v>
       </c>
       <c r="L4" t="n">
         <v>27177.9569210255</v>
       </c>
       <c r="M4" t="n">
-        <v>27177.9569210255</v>
+        <v>27177.95692102551</v>
       </c>
       <c r="N4" t="n">
-        <v>27177.9569210255</v>
+        <v>27177.95692102551</v>
       </c>
       <c r="O4" t="n">
         <v>27177.9569210255</v>
       </c>
       <c r="P4" t="n">
-        <v>27177.9569210255</v>
+        <v>27177.95692102551</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>34459.30828506134</v>
       </c>
       <c r="E5" t="n">
-        <v>43928.07778537247</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="F5" t="n">
-        <v>43928.07778537247</v>
+        <v>43928.07778537244</v>
       </c>
       <c r="G5" t="n">
-        <v>43928.07778537247</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="H5" t="n">
-        <v>43928.07778537246</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="I5" t="n">
-        <v>43928.07778537246</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="J5" t="n">
-        <v>43928.07778537246</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="K5" t="n">
         <v>43928.07778537246</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155272.164627226</v>
+        <v>155250.4509857297</v>
       </c>
       <c r="C6" t="n">
-        <v>155272.164627226</v>
+        <v>155250.4509857296</v>
       </c>
       <c r="D6" t="n">
-        <v>135075.4653139654</v>
+        <v>135053.7821938742</v>
       </c>
       <c r="E6" t="n">
-        <v>-294801.8806402406</v>
+        <v>-295396.2618405671</v>
       </c>
       <c r="F6" t="n">
-        <v>239115.13438612</v>
+        <v>238520.7531857936</v>
       </c>
       <c r="G6" t="n">
-        <v>239115.1343861202</v>
+        <v>238520.7531857935</v>
       </c>
       <c r="H6" t="n">
-        <v>239115.1343861201</v>
+        <v>238520.7531857934</v>
       </c>
       <c r="I6" t="n">
-        <v>239115.1343861201</v>
+        <v>238520.7531857937</v>
       </c>
       <c r="J6" t="n">
-        <v>239115.13438612</v>
+        <v>238520.7531857936</v>
       </c>
       <c r="K6" t="n">
-        <v>239115.1343861201</v>
+        <v>238520.7531857937</v>
       </c>
       <c r="L6" t="n">
-        <v>239115.13438612</v>
+        <v>238520.7531857936</v>
       </c>
       <c r="M6" t="n">
-        <v>103827.4941843698</v>
+        <v>103233.1129840437</v>
       </c>
       <c r="N6" t="n">
-        <v>239115.1343861202</v>
+        <v>238520.7531857936</v>
       </c>
       <c r="O6" t="n">
-        <v>239115.13438612</v>
+        <v>238520.7531857935</v>
       </c>
       <c r="P6" t="n">
-        <v>239115.1343861201</v>
+        <v>238520.7531857936</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>500.9646443007664</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="F3" t="n">
-        <v>500.9646443007665</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="G3" t="n">
-        <v>500.9646443007664</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="H3" t="n">
-        <v>500.9646443007663</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="I3" t="n">
         <v>500.9646443007663</v>
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="F4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226273</v>
       </c>
       <c r="G4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="H4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="I4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="J4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="K4" t="n">
         <v>542.8790878226276</v>
@@ -26968,7 +26968,7 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>462.8128881052924</v>
+        <v>462.8128881052922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226275</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.8790878226283</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.8790878226276</v>
+        <v>542.8790878226275</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H11" t="n">
-        <v>20.62514236560893</v>
+        <v>20.62514236560892</v>
       </c>
       <c r="I11" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J11" t="n">
-        <v>170.9296401174761</v>
+        <v>170.929640117476</v>
       </c>
       <c r="K11" t="n">
-        <v>256.1792215978839</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L11" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M11" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606107</v>
       </c>
       <c r="N11" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O11" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P11" t="n">
-        <v>289.6053952010275</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q11" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R11" t="n">
         <v>126.5074184424443</v>
       </c>
       <c r="S11" t="n">
-        <v>45.8923892743868</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T11" t="n">
-        <v>8.81597077558434</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U11" t="n">
         <v>0.1611142574635629</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.077546593401649</v>
+        <v>1.077546593401648</v>
       </c>
       <c r="H12" t="n">
         <v>10.40683157311592</v>
       </c>
       <c r="I12" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J12" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K12" t="n">
-        <v>174.0001444266162</v>
+        <v>174.0001444266161</v>
       </c>
       <c r="L12" t="n">
-        <v>233.964667133108</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M12" t="n">
-        <v>273.0257311439177</v>
+        <v>273.0257311439175</v>
       </c>
       <c r="N12" t="n">
-        <v>280.2519098338788</v>
+        <v>280.2519098338786</v>
       </c>
       <c r="O12" t="n">
-        <v>256.3757458432422</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P12" t="n">
-        <v>205.7641385242148</v>
+        <v>205.7641385242147</v>
       </c>
       <c r="Q12" t="n">
-        <v>137.5478774314105</v>
+        <v>137.5478774314104</v>
       </c>
       <c r="R12" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S12" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T12" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9033788667718737</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H13" t="n">
-        <v>8.031859379117211</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I13" t="n">
-        <v>27.16706628437599</v>
+        <v>27.16706628437598</v>
       </c>
       <c r="J13" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K13" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L13" t="n">
         <v>134.3077998835202</v>
@@ -31934,25 +31934,25 @@
         <v>138.2416042215542</v>
       </c>
       <c r="O13" t="n">
-        <v>127.6884965506282</v>
+        <v>127.6884965506281</v>
       </c>
       <c r="P13" t="n">
         <v>109.2595676684818</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.64566128941573</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R13" t="n">
-        <v>40.61919886412442</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S13" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T13" t="n">
-        <v>3.859891521661641</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04927521091482953</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H14" t="n">
-        <v>20.62514236560893</v>
+        <v>20.62514236560892</v>
       </c>
       <c r="I14" t="n">
-        <v>77.64196763580021</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J14" t="n">
-        <v>170.9296401174761</v>
+        <v>170.929640117476</v>
       </c>
       <c r="K14" t="n">
-        <v>256.1792215978839</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L14" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M14" t="n">
-        <v>353.6281732606109</v>
+        <v>353.6281732606107</v>
       </c>
       <c r="N14" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O14" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P14" t="n">
-        <v>289.6053952010275</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q14" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R14" t="n">
         <v>126.5074184424443</v>
       </c>
       <c r="S14" t="n">
-        <v>45.89238927438681</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T14" t="n">
-        <v>8.81597077558434</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U14" t="n">
         <v>0.1611142574635629</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.077546593401649</v>
+        <v>1.077546593401648</v>
       </c>
       <c r="H15" t="n">
         <v>10.40683157311592</v>
       </c>
       <c r="I15" t="n">
-        <v>37.09974016755677</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J15" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K15" t="n">
-        <v>174.0001444266162</v>
+        <v>174.0001444266161</v>
       </c>
       <c r="L15" t="n">
-        <v>233.964667133108</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M15" t="n">
-        <v>273.0257311439177</v>
+        <v>273.0257311439175</v>
       </c>
       <c r="N15" t="n">
-        <v>280.2519098338788</v>
+        <v>280.2519098338786</v>
       </c>
       <c r="O15" t="n">
-        <v>256.3757458432422</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P15" t="n">
-        <v>205.7641385242148</v>
+        <v>205.7641385242147</v>
       </c>
       <c r="Q15" t="n">
-        <v>137.5478774314105</v>
+        <v>137.5478774314104</v>
       </c>
       <c r="R15" t="n">
-        <v>66.90241042190239</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S15" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T15" t="n">
-        <v>4.343268944456644</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07089122325010849</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9033788667718738</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H16" t="n">
-        <v>8.031859379117211</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I16" t="n">
-        <v>27.16706628437599</v>
+        <v>27.16706628437598</v>
       </c>
       <c r="J16" t="n">
-        <v>63.86888588077148</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K16" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L16" t="n">
-        <v>134.3077998835203</v>
+        <v>134.3077998835202</v>
       </c>
       <c r="M16" t="n">
-        <v>141.6087436340675</v>
+        <v>141.6087436340674</v>
       </c>
       <c r="N16" t="n">
         <v>138.2416042215542</v>
       </c>
       <c r="O16" t="n">
-        <v>127.6884965506282</v>
+        <v>127.6884965506281</v>
       </c>
       <c r="P16" t="n">
-        <v>109.2595676684819</v>
+        <v>109.2595676684818</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.64566128941573</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R16" t="n">
-        <v>40.61919886412443</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S16" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T16" t="n">
-        <v>3.859891521661642</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04927521091482954</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H17" t="n">
-        <v>20.62514236560893</v>
+        <v>20.62514236560892</v>
       </c>
       <c r="I17" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J17" t="n">
-        <v>170.9296401174761</v>
+        <v>170.929640117476</v>
       </c>
       <c r="K17" t="n">
-        <v>256.1792215978839</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L17" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M17" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606107</v>
       </c>
       <c r="N17" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O17" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P17" t="n">
-        <v>289.6053952010275</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q17" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R17" t="n">
         <v>126.5074184424443</v>
       </c>
       <c r="S17" t="n">
-        <v>45.8923892743868</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T17" t="n">
-        <v>8.81597077558434</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U17" t="n">
         <v>0.1611142574635629</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.077546593401649</v>
+        <v>1.077546593401648</v>
       </c>
       <c r="H18" t="n">
         <v>10.40683157311592</v>
       </c>
       <c r="I18" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J18" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K18" t="n">
-        <v>174.0001444266162</v>
+        <v>174.0001444266161</v>
       </c>
       <c r="L18" t="n">
-        <v>233.964667133108</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M18" t="n">
-        <v>273.0257311439177</v>
+        <v>273.0257311439175</v>
       </c>
       <c r="N18" t="n">
-        <v>280.2519098338788</v>
+        <v>280.2519098338786</v>
       </c>
       <c r="O18" t="n">
-        <v>256.3757458432422</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P18" t="n">
-        <v>205.7641385242148</v>
+        <v>205.7641385242147</v>
       </c>
       <c r="Q18" t="n">
-        <v>137.5478774314105</v>
+        <v>137.5478774314104</v>
       </c>
       <c r="R18" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S18" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T18" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9033788667718737</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H19" t="n">
-        <v>8.031859379117211</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I19" t="n">
-        <v>27.16706628437599</v>
+        <v>27.16706628437598</v>
       </c>
       <c r="J19" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K19" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L19" t="n">
         <v>134.3077998835202</v>
@@ -32408,25 +32408,25 @@
         <v>138.2416042215542</v>
       </c>
       <c r="O19" t="n">
-        <v>127.6884965506282</v>
+        <v>127.6884965506281</v>
       </c>
       <c r="P19" t="n">
         <v>109.2595676684818</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.64566128941573</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R19" t="n">
-        <v>40.61919886412442</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S19" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T19" t="n">
-        <v>3.859891521661641</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04927521091482953</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H20" t="n">
-        <v>20.62514236560893</v>
+        <v>20.62514236560892</v>
       </c>
       <c r="I20" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J20" t="n">
-        <v>170.9296401174761</v>
+        <v>170.929640117476</v>
       </c>
       <c r="K20" t="n">
         <v>256.1792215978838</v>
       </c>
       <c r="L20" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M20" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606107</v>
       </c>
       <c r="N20" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O20" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P20" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q20" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R20" t="n">
         <v>126.5074184424443</v>
@@ -32502,7 +32502,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T20" t="n">
-        <v>8.815970775584338</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U20" t="n">
         <v>0.1611142574635629</v>
@@ -32548,43 +32548,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I21" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J21" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K21" t="n">
-        <v>174.0001444266162</v>
+        <v>174.0001444266161</v>
       </c>
       <c r="L21" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M21" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439175</v>
       </c>
       <c r="N21" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338786</v>
       </c>
       <c r="O21" t="n">
-        <v>256.3757458432422</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P21" t="n">
-        <v>205.7641385242148</v>
+        <v>205.7641385242147</v>
       </c>
       <c r="Q21" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R21" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S21" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T21" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9033788667718736</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H22" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I22" t="n">
-        <v>27.16706628437599</v>
+        <v>27.16706628437598</v>
       </c>
       <c r="J22" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K22" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L22" t="n">
         <v>134.3077998835202</v>
@@ -32651,7 +32651,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.64566128941571</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R22" t="n">
         <v>40.61919886412441</v>
@@ -32660,7 +32660,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T22" t="n">
-        <v>3.859891521661641</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U22" t="n">
         <v>0.04927521091482952</v>
@@ -34371,13 +34371,13 @@
         <v>170.9296401174761</v>
       </c>
       <c r="K44" t="n">
-        <v>256.1792215978844</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L44" t="n">
         <v>317.8129773085154</v>
       </c>
       <c r="M44" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606113</v>
       </c>
       <c r="N44" t="n">
         <v>359.3502468108402</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J11" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K11" t="n">
-        <v>220.4146208030746</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L11" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758923</v>
       </c>
       <c r="M11" t="n">
-        <v>316.196910361179</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N11" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O11" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P11" t="n">
-        <v>252.0300333907962</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q11" t="n">
-        <v>181.3569162787563</v>
+        <v>181.3569162787562</v>
       </c>
       <c r="R11" t="n">
-        <v>91.47476854764784</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.92735341755676</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J12" t="n">
-        <v>322.2713592222979</v>
+        <v>192.0564035361193</v>
       </c>
       <c r="K12" t="n">
-        <v>151.6009105932829</v>
+        <v>151.6009105932828</v>
       </c>
       <c r="L12" t="n">
-        <v>211.4495804188784</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M12" t="n">
-        <v>249.9289506315897</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N12" t="n">
-        <v>258.9088816203371</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O12" t="n">
-        <v>233.20385612102</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P12" t="n">
-        <v>183.9932973193862</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q12" t="n">
-        <v>114.800839142432</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R12" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>121.9409345920422</v>
       </c>
       <c r="K13" t="n">
-        <v>205.105504873693</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L13" t="n">
         <v>492.5798415950563</v>
@@ -35582,7 +35582,7 @@
         <v>117.4927032459538</v>
       </c>
       <c r="O13" t="n">
-        <v>486.7068083483686</v>
+        <v>358.0403551796995</v>
       </c>
       <c r="P13" t="n">
         <v>402.7941251653515</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>43.09406509183671</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J14" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K14" t="n">
-        <v>220.4146208030746</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L14" t="n">
-        <v>279.5009348758925</v>
+        <v>279.5009348758923</v>
       </c>
       <c r="M14" t="n">
-        <v>316.1969103611791</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N14" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O14" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P14" t="n">
-        <v>252.0300333907962</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q14" t="n">
-        <v>181.3569162787563</v>
+        <v>181.3569162787562</v>
       </c>
       <c r="R14" t="n">
-        <v>91.47476854764784</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.92735341755677</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J15" t="n">
-        <v>322.2713592222978</v>
+        <v>192.0564035361191</v>
       </c>
       <c r="K15" t="n">
-        <v>151.6009105932829</v>
+        <v>151.6009105932828</v>
       </c>
       <c r="L15" t="n">
-        <v>211.4495804188784</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M15" t="n">
-        <v>249.9289506315897</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N15" t="n">
-        <v>258.9088816203371</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O15" t="n">
-        <v>233.20385612102</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P15" t="n">
-        <v>183.9932973193862</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q15" t="n">
-        <v>114.800839142432</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R15" t="n">
-        <v>43.22949102775824</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.23212989686961</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K16" t="n">
-        <v>333.7719580423617</v>
+        <v>168.9103976417543</v>
       </c>
       <c r="L16" t="n">
-        <v>492.5798415950564</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M16" t="n">
-        <v>517.3575779080047</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N16" t="n">
-        <v>519.5461606619945</v>
+        <v>117.4927032459538</v>
       </c>
       <c r="O16" t="n">
         <v>105.1893090522037</v>
       </c>
       <c r="P16" t="n">
-        <v>86.87876701049538</v>
+        <v>402.7941251653515</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.02609852463078</v>
+        <v>203.9286211285692</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J17" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K17" t="n">
-        <v>220.4146208030746</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L17" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758923</v>
       </c>
       <c r="M17" t="n">
-        <v>316.196910361179</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N17" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O17" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P17" t="n">
-        <v>252.0300333907962</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q17" t="n">
-        <v>181.3569162787563</v>
+        <v>181.3569162787562</v>
       </c>
       <c r="R17" t="n">
-        <v>91.47476854764784</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.92735341755676</v>
+        <v>20.92735341755675</v>
       </c>
       <c r="J18" t="n">
-        <v>81.19340833537242</v>
+        <v>81.1934083353724</v>
       </c>
       <c r="K18" t="n">
-        <v>151.6009105932829</v>
+        <v>392.6788614802092</v>
       </c>
       <c r="L18" t="n">
-        <v>211.4495804188784</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M18" t="n">
-        <v>249.9289506315897</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N18" t="n">
-        <v>499.9868325072625</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O18" t="n">
-        <v>233.20385612102</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P18" t="n">
-        <v>183.9932973193862</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q18" t="n">
-        <v>114.800839142432</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R18" t="n">
-        <v>43.22949102775823</v>
+        <v>43.22949102775821</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36053,16 +36053,16 @@
         <v>119.0333037425816</v>
       </c>
       <c r="N19" t="n">
-        <v>117.4927032459538</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O19" t="n">
-        <v>486.7068083483686</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P19" t="n">
-        <v>402.7941251653515</v>
+        <v>253.5917138768065</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.26216795990096</v>
+        <v>203.9286211285692</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J20" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K20" t="n">
         <v>220.4146208030745</v>
       </c>
       <c r="L20" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758923</v>
       </c>
       <c r="M20" t="n">
         <v>316.1969103611789</v>
       </c>
       <c r="N20" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O20" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P20" t="n">
         <v>252.0300333907961</v>
@@ -36144,7 +36144,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R20" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.92735341755676</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J21" t="n">
-        <v>81.19340833537242</v>
+        <v>192.0564035361193</v>
       </c>
       <c r="K21" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L21" t="n">
-        <v>452.5275313058044</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M21" t="n">
         <v>249.9289506315896</v>
@@ -36223,7 +36223,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R21" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K22" t="n">
-        <v>147.047741832952</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L22" t="n">
-        <v>112.389039987819</v>
+        <v>341.454423182698</v>
       </c>
       <c r="M22" t="n">
         <v>536.7459102706844</v>
@@ -36293,13 +36293,13 @@
         <v>519.5461606619943</v>
       </c>
       <c r="O22" t="n">
-        <v>105.1893090522037</v>
+        <v>486.7068083483686</v>
       </c>
       <c r="P22" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q22" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>279.5009348758924</v>
       </c>
       <c r="M23" t="n">
-        <v>316.1969103611789</v>
+        <v>316.1969103611785</v>
       </c>
       <c r="N23" t="n">
         <v>322.0706239763942</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.92735341755676</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J24" t="n">
-        <v>215.7506518638077</v>
+        <v>192.056403536119</v>
       </c>
       <c r="K24" t="n">
         <v>151.6009105932828</v>
@@ -36518,25 +36518,25 @@
         <v>43.23212989686959</v>
       </c>
       <c r="K25" t="n">
-        <v>83.99154479587476</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L25" t="n">
-        <v>341.4544231826987</v>
+        <v>442.6221931215595</v>
       </c>
       <c r="M25" t="n">
-        <v>536.7459102706844</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N25" t="n">
-        <v>519.5461606619943</v>
+        <v>117.4927032459538</v>
       </c>
       <c r="O25" t="n">
         <v>486.7068083483686</v>
       </c>
       <c r="P25" t="n">
-        <v>86.87876701049535</v>
+        <v>402.7941251653515</v>
       </c>
       <c r="Q25" t="n">
-        <v>51.02609852463077</v>
+        <v>203.9286211285692</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R26" t="n">
-        <v>91.47476854764825</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>44.62160174524548</v>
       </c>
       <c r="J27" t="n">
-        <v>81.19340833537242</v>
+        <v>192.056403536119</v>
       </c>
       <c r="K27" t="n">
-        <v>368.9846131525201</v>
+        <v>151.6009105932828</v>
       </c>
       <c r="L27" t="n">
         <v>211.4495804188784</v>
@@ -36697,7 +36697,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R27" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.23212989686959</v>
+        <v>60.03890476612694</v>
       </c>
       <c r="K28" t="n">
-        <v>83.99154479587476</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L28" t="n">
-        <v>188.5519005787602</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M28" t="n">
-        <v>536.7459102706844</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N28" t="n">
         <v>519.5461606619943</v>
@@ -36773,7 +36773,7 @@
         <v>86.87876701049535</v>
       </c>
       <c r="Q28" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R29" t="n">
-        <v>91.47476854764825</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>20.92735341755676</v>
       </c>
       <c r="J30" t="n">
-        <v>81.19340833537242</v>
+        <v>322.2713592222984</v>
       </c>
       <c r="K30" t="n">
         <v>151.6009105932828</v>
@@ -36931,7 +36931,7 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q30" t="n">
-        <v>355.8787900293578</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R30" t="n">
         <v>43.22949102775823</v>
@@ -36992,10 +36992,10 @@
         <v>43.23212989686959</v>
       </c>
       <c r="K31" t="n">
-        <v>83.99154479587476</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L31" t="n">
-        <v>492.5798415950563</v>
+        <v>112.389039987819</v>
       </c>
       <c r="M31" t="n">
         <v>536.7459102706844</v>
@@ -37004,10 +37004,10 @@
         <v>519.5461606619943</v>
       </c>
       <c r="O31" t="n">
-        <v>182.6788673320726</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P31" t="n">
-        <v>86.87876701049535</v>
+        <v>294.7787136511145</v>
       </c>
       <c r="Q31" t="n">
         <v>203.9286211285692</v>
@@ -37071,7 +37071,7 @@
         <v>141.5096806318896</v>
       </c>
       <c r="K32" t="n">
-        <v>220.414620803075</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L32" t="n">
         <v>279.5009348758924</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.92735341755676</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J33" t="n">
-        <v>81.19340833537242</v>
+        <v>192.0564035361189</v>
       </c>
       <c r="K33" t="n">
         <v>151.6009105932828</v>
@@ -37168,7 +37168,7 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q33" t="n">
-        <v>249.3580826708671</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R33" t="n">
         <v>149.7501983862489</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.23212989686959</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K34" t="n">
-        <v>83.99154479587476</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L34" t="n">
-        <v>188.5519005787602</v>
+        <v>277.7752891652034</v>
       </c>
       <c r="M34" t="n">
-        <v>536.7459102706844</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N34" t="n">
         <v>519.5461606619943</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>44.62160174524548</v>
+        <v>20.92735341755676</v>
       </c>
       <c r="J36" t="n">
-        <v>192.0564035361189</v>
+        <v>81.19340833537242</v>
       </c>
       <c r="K36" t="n">
-        <v>151.6009105932828</v>
+        <v>392.6788614802088</v>
       </c>
       <c r="L36" t="n">
         <v>211.4495804188784</v>
@@ -37408,7 +37408,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R36" t="n">
-        <v>149.7501983862489</v>
+        <v>43.22949102775823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>43.23212989686959</v>
       </c>
       <c r="K37" t="n">
-        <v>333.7719580423617</v>
+        <v>83.99154479587476</v>
       </c>
       <c r="L37" t="n">
-        <v>492.5798415950563</v>
+        <v>341.4544231826987</v>
       </c>
       <c r="M37" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N37" t="n">
-        <v>117.4927032459538</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O37" t="n">
         <v>486.7068083483686</v>
       </c>
       <c r="P37" t="n">
-        <v>352.8364766918556</v>
+        <v>86.87876701049535</v>
       </c>
       <c r="Q37" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>44.62160174524548</v>
+        <v>20.92735341755676</v>
       </c>
       <c r="J39" t="n">
-        <v>192.0564035361189</v>
+        <v>81.19340833537242</v>
       </c>
       <c r="K39" t="n">
-        <v>151.6009105932828</v>
+        <v>392.6788614802088</v>
       </c>
       <c r="L39" t="n">
         <v>211.4495804188784</v>
@@ -37645,7 +37645,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R39" t="n">
-        <v>149.7501983862489</v>
+        <v>43.22949102775823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>43.23212989686959</v>
       </c>
       <c r="K40" t="n">
-        <v>333.7719580423617</v>
+        <v>83.99154479587476</v>
       </c>
       <c r="L40" t="n">
-        <v>442.6221931215603</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M40" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N40" t="n">
         <v>117.4927032459538</v>
       </c>
       <c r="O40" t="n">
-        <v>486.7068083483686</v>
+        <v>421.7194891971956</v>
       </c>
       <c r="P40" t="n">
         <v>402.7941251653515</v>
       </c>
       <c r="Q40" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>20.92735341755676</v>
       </c>
       <c r="J42" t="n">
-        <v>322.2713592222984</v>
+        <v>81.19340833537242</v>
       </c>
       <c r="K42" t="n">
         <v>151.6009105932828</v>
@@ -37879,7 +37879,7 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q42" t="n">
-        <v>114.8008391424319</v>
+        <v>355.8787900293578</v>
       </c>
       <c r="R42" t="n">
         <v>43.22949102775823</v>
@@ -37943,22 +37943,22 @@
         <v>83.99154479587476</v>
       </c>
       <c r="L43" t="n">
-        <v>112.389039987819</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M43" t="n">
-        <v>296.9934127067692</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N43" t="n">
         <v>519.5461606619943</v>
       </c>
       <c r="O43" t="n">
-        <v>486.7068083483686</v>
+        <v>437.3786383092576</v>
       </c>
       <c r="P43" t="n">
         <v>402.7941251653515</v>
       </c>
       <c r="Q43" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>141.5096806318896</v>
       </c>
       <c r="K44" t="n">
-        <v>220.414620803075</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L44" t="n">
         <v>279.5009348758924</v>
       </c>
       <c r="M44" t="n">
-        <v>316.1969103611789</v>
+        <v>316.1969103611794</v>
       </c>
       <c r="N44" t="n">
         <v>322.0706239763942</v>
@@ -38183,16 +38183,16 @@
         <v>492.5798415950563</v>
       </c>
       <c r="M46" t="n">
-        <v>385.6204918583267</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N46" t="n">
-        <v>519.5461606619943</v>
+        <v>434.0228833909456</v>
       </c>
       <c r="O46" t="n">
-        <v>486.7068083483686</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P46" t="n">
-        <v>86.87876701049535</v>
+        <v>402.7941251653515</v>
       </c>
       <c r="Q46" t="n">
         <v>51.02609852463077</v>
